--- a/hpc_assignment1.xlsx
+++ b/hpc_assignment1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\OneDrive\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\OneDrive\Documenti\AA MAGISTRALE\FONDAMENTALS OF HIGH PERFORMING COMPUTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C21FF8A4-37E4-44D6-A561-8B57986CE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C9083-CD12-498F-A611-D31635CC1C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EC43FC9-384A-4637-855A-2D1EB4ED0C6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8EC43FC9-384A-4637-855A-2D1EB4ED0C6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>tempi</t>
   </si>
@@ -44,13 +45,30 @@
   <si>
     <t>tempi tot</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>24 core</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -112,36 +131,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -151,9 +140,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>prima run</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -178,156 +164,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$B$4:$B$26</c:f>
+              <c:f>Foglio1!$B$37:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$C$26</c:f>
+              <c:f>Foglio1!$C$37:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.0242500000000001E-5</c:v>
+                  <c:v>1.9088599999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1678699999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2.3398E-3</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>2.67345E-3</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>2.35337E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>2.3655E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>2.6798400000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>2.4587900000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>2.4384200000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>2.4452499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>2.4576799999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>3.6297899999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>2.49147E-3</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>2.50381E-3</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>2.7376599999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>2.4800899999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.6628000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>2.53127E-3</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>2.5293300000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>1.6611E-3</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>2.5717700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>1.7273799999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>1.73343E-3</c:v>
+                  <c:v>1.51731E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0516199999999998E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,6 +588,401 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6458-4B22-8E03-5A56CB3F0851}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767332319"/>
+        <c:axId val="767331903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767332319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767331903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767331903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767332319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$C$4:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.120099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41104099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52253400000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64322299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.758517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90221099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1487700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3743700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5088299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.63503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7273099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.86686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.98201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1276299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3667400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4868899999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6459299999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7700300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9841899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C414-4310-9762-E120559F5C09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1001,6 +1253,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1518,6 +1810,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2104,6 +2912,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1BCAD8-E5B8-4A3B-9911-16D135ED7A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2411,7 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3551C8ED-320D-4D60-89DE-87381DC4E39C}">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -2804,4 +3655,255 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ECCE78-976B-4E50-949F-92054A9611C5}">
+  <dimension ref="B2:R48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.120099</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41104099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.52253400000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.64322299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.758517</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.90221099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.00915</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.1487700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.24499</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.3743700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.5088299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.63503</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.7273099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.86686</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.98201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.1276299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.22169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.3667400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.4868899999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.6459299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.7700300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.9021599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.9841899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>